--- a/SoftDrinksKaileyBoettcher.xlsx
+++ b/SoftDrinksKaileyBoettcher.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b7aae43f62c39fb3/Documents/XCEL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="8_{26C611C2-1F6D-434B-B3AB-886978170053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1FA7B43-54E0-464E-8C82-AB1D319F19D5}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="8_{26C611C2-1F6D-434B-B3AB-886978170053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E832480-4A64-4ED2-AA6E-6DAA090856E9}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3340" yWindow="3340" windowWidth="14400" windowHeight="8250" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -142,10 +142,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,10 +468,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="5"/>
       <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
@@ -708,7 +708,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -717,23 +717,23 @@
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="4" max="4" width="12.26953125" customWidth="1"/>
     <col min="5" max="5" width="10.7265625" customWidth="1"/>
-    <col min="6" max="6" width="16.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="16.453125" style="4" customWidth="1"/>
     <col min="7" max="7" width="19.1796875" customWidth="1"/>
     <col min="8" max="8" width="18.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="5"/>
       <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G1" t="s">
@@ -757,7 +757,7 @@
         <f>COUNTIF($A$2:$B$26,D2)</f>
         <v>19</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <f>E2/$E$7</f>
         <v>0.38</v>
       </c>
@@ -784,7 +784,7 @@
         <f>COUNTIF($A$2:$B$26,D3)</f>
         <v>8</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <f t="shared" ref="F3:F6" si="0">E3/$E$7</f>
         <v>0.16</v>
       </c>
@@ -811,8 +811,8 @@
         <f t="shared" ref="E4:E6" si="2">COUNTIF($A$2:$B$26,D4)</f>
         <v>5</v>
       </c>
-      <c r="F4" s="5">
-        <f t="shared" si="0"/>
+      <c r="F4" s="4">
+        <f>E4/$E$7</f>
         <v>0.1</v>
       </c>
       <c r="G4" s="3">
@@ -838,7 +838,7 @@
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <f t="shared" si="0"/>
         <v>0.26</v>
       </c>
@@ -865,7 +865,7 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
@@ -913,7 +913,7 @@
         <f>COUNTIF($A$2:$B$26,D9)</f>
         <v>19</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <f>E9/$E$14</f>
         <v>0.38</v>
       </c>
@@ -940,7 +940,7 @@
         <f t="shared" ref="E10:E13" si="3">COUNTIF($A$2:$B$26,D10)</f>
         <v>5</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <f t="shared" ref="F10:F13" si="4">E10/$E$14</f>
         <v>0.1</v>
       </c>
@@ -967,7 +967,7 @@
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <f t="shared" si="4"/>
         <v>0.26</v>
       </c>
@@ -994,7 +994,7 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <f t="shared" si="4"/>
         <v>0.16</v>
       </c>
@@ -1021,7 +1021,7 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
